--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y883"/>
+  <dimension ref="A1:Y884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52190,7 +52190,7 @@
       </c>
       <c r="R882" s="2" t="inlineStr"/>
     </row>
-    <row r="883">
+    <row r="883" ht="15" customHeight="1">
       <c r="A883" t="inlineStr">
         <is>
           <t>A 38888-2023</t>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52246,6 +52246,63 @@
         <v>0</v>
       </c>
       <c r="R883" s="2" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>A 42370-2023</t>
+        </is>
+      </c>
+      <c r="B884" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C884" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>HÄSSLEHOLM</t>
+        </is>
+      </c>
+      <c r="G884" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0</v>
+      </c>
+      <c r="I884" t="n">
+        <v>0</v>
+      </c>
+      <c r="J884" t="n">
+        <v>0</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>0</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52257,7 +52257,7 @@
         <v>45180</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 55796-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 55796-2021.xlsx", "A 55796-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 55796-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 55796-2021.png", "A 55796-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 55796-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 55796-2021.docx", "A 55796-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 55796-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 55796-2021.docx", "A 55796-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 55796-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 55796-2021.docx", "A 55796-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 55796-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 55796-2021.docx", "A 55796-2021")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -723,27 +723,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 9304-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 9304-2019.xlsx", "A 9304-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 9304-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 9304-2019.png", "A 9304-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 9304-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 9304-2019.docx", "A 9304-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 9304-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 9304-2019.docx", "A 9304-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 9304-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 9304-2019.docx", "A 9304-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 9304-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 9304-2019.docx", "A 9304-2019")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -813,27 +813,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 19823-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 19823-2020.xlsx", "A 19823-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 19823-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 19823-2020.png", "A 19823-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 19823-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 19823-2020.docx", "A 19823-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 19823-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 19823-2020.docx", "A 19823-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 19823-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 19823-2020.docx", "A 19823-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 19823-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 19823-2020.docx", "A 19823-2020")</f>
         <v/>
       </c>
     </row>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -902,27 +902,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 4059-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 4059-2023.xlsx", "A 4059-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 4059-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 4059-2023.png", "A 4059-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 4059-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 4059-2023.docx", "A 4059-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 4059-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 4059-2023.docx", "A 4059-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 4059-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 4059-2023.docx", "A 4059-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 4059-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 4059-2023.docx", "A 4059-2023")</f>
         <v/>
       </c>
     </row>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -989,27 +989,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 9294-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 9294-2019.xlsx", "A 9294-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 9294-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 9294-2019.png", "A 9294-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 9294-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 9294-2019.docx", "A 9294-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 9294-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 9294-2019.docx", "A 9294-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 9294-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 9294-2019.docx", "A 9294-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 9294-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 9294-2019.docx", "A 9294-2019")</f>
         <v/>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1076,27 +1076,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 59303-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 59303-2020.xlsx", "A 59303-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 59303-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 59303-2020.png", "A 59303-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 59303-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 59303-2020.docx", "A 59303-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 59303-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 59303-2020.docx", "A 59303-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 59303-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 59303-2020.docx", "A 59303-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 59303-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 59303-2020.docx", "A 59303-2020")</f>
         <v/>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1162,27 +1162,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 8861-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 8861-2020.xlsx", "A 8861-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 8861-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 8861-2020.png", "A 8861-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 8861-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 8861-2020.docx", "A 8861-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 8861-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 8861-2020.docx", "A 8861-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 8861-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 8861-2020.docx", "A 8861-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 8861-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 8861-2020.docx", "A 8861-2020")</f>
         <v/>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1248,27 +1248,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 44167-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 44167-2021.xlsx", "A 44167-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 44167-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 44167-2021.png", "A 44167-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 44167-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 44167-2021.docx", "A 44167-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 44167-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 44167-2021.docx", "A 44167-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 44167-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 44167-2021.docx", "A 44167-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 44167-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 44167-2021.docx", "A 44167-2021")</f>
         <v/>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1338,27 +1338,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 67152-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 67152-2018.xlsx", "A 67152-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 67152-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 67152-2018.png", "A 67152-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 67152-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 67152-2018.docx", "A 67152-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 67152-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 67152-2018.docx", "A 67152-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 67152-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 67152-2018.docx", "A 67152-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 67152-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 67152-2018.docx", "A 67152-2018")</f>
         <v/>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,27 +1428,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 67008-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 67008-2018.xlsx", "A 67008-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 67008-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 67008-2018.png", "A 67008-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 67008-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 67008-2018.docx", "A 67008-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 67008-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 67008-2018.docx", "A 67008-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 67008-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 67008-2018.docx", "A 67008-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 67008-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 67008-2018.docx", "A 67008-2018")</f>
         <v/>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1513,27 +1513,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 67851-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 67851-2018.xlsx", "A 67851-2018")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 67851-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 67851-2018.png", "A 67851-2018")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 67851-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 67851-2018.docx", "A 67851-2018")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 67851-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 67851-2018.docx", "A 67851-2018")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 67851-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 67851-2018.docx", "A 67851-2018")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 67851-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 67851-2018.docx", "A 67851-2018")</f>
         <v/>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1598,27 +1598,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 69458-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 69458-2018.xlsx", "A 69458-2018")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 69458-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 69458-2018.png", "A 69458-2018")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 69458-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 69458-2018.docx", "A 69458-2018")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 69458-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 69458-2018.docx", "A 69458-2018")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 69458-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 69458-2018.docx", "A 69458-2018")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 69458-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 69458-2018.docx", "A 69458-2018")</f>
         <v/>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1683,27 +1683,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 1829-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 1829-2019.xlsx", "A 1829-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 1829-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 1829-2019.png", "A 1829-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 1829-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 1829-2019.docx", "A 1829-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 1829-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 1829-2019.docx", "A 1829-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 1829-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 1829-2019.docx", "A 1829-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 1829-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 1829-2019.docx", "A 1829-2019")</f>
         <v/>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1768,27 +1768,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 12932-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 12932-2019.xlsx", "A 12932-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 12932-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 12932-2019.png", "A 12932-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 12932-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 12932-2019.docx", "A 12932-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 12932-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 12932-2019.docx", "A 12932-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 12932-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 12932-2019.docx", "A 12932-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 12932-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 12932-2019.docx", "A 12932-2019")</f>
         <v/>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1853,27 +1853,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 28988-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 28988-2019.xlsx", "A 28988-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 28988-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 28988-2019.png", "A 28988-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 28988-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 28988-2019.docx", "A 28988-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 28988-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 28988-2019.docx", "A 28988-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 28988-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 28988-2019.docx", "A 28988-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 28988-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 28988-2019.docx", "A 28988-2019")</f>
         <v/>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1938,27 +1938,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 29223-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 29223-2019.xlsx", "A 29223-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 29223-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 29223-2019.png", "A 29223-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 29223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 29223-2019.docx", "A 29223-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 29223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 29223-2019.docx", "A 29223-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 29223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 29223-2019.docx", "A 29223-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 29223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 29223-2019.docx", "A 29223-2019")</f>
         <v/>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2023,27 +2023,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 29765-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 29765-2019.xlsx", "A 29765-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 29765-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 29765-2019.png", "A 29765-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 29765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 29765-2019.docx", "A 29765-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 29765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 29765-2019.docx", "A 29765-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 29765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 29765-2019.docx", "A 29765-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 29765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 29765-2019.docx", "A 29765-2019")</f>
         <v/>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 32997-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 32997-2019.xlsx", "A 32997-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 32997-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 32997-2019.png", "A 32997-2019")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/knärot/A 32997-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/knärot/A 32997-2019.png", "A 32997-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 32997-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 32997-2019.docx", "A 32997-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 32997-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 32997-2019.docx", "A 32997-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 32997-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 32997-2019.docx", "A 32997-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 32997-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 32997-2019.docx", "A 32997-2019")</f>
         <v/>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2197,27 +2197,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 47678-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 47678-2019.xlsx", "A 47678-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 47678-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 47678-2019.png", "A 47678-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 47678-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 47678-2019.docx", "A 47678-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 47678-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 47678-2019.docx", "A 47678-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 47678-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 47678-2019.docx", "A 47678-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 47678-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 47678-2019.docx", "A 47678-2019")</f>
         <v/>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2282,27 +2282,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 47468-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 47468-2019.xlsx", "A 47468-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 47468-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 47468-2019.png", "A 47468-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 47468-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 47468-2019.docx", "A 47468-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 47468-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 47468-2019.docx", "A 47468-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 47468-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 47468-2019.docx", "A 47468-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 47468-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 47468-2019.docx", "A 47468-2019")</f>
         <v/>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2367,27 +2367,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 55656-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 55656-2019.xlsx", "A 55656-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 55656-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 55656-2019.png", "A 55656-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 55656-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 55656-2019.docx", "A 55656-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 55656-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 55656-2019.docx", "A 55656-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 55656-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 55656-2019.docx", "A 55656-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 55656-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 55656-2019.docx", "A 55656-2019")</f>
         <v/>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2452,27 +2452,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 2738-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 2738-2020.xlsx", "A 2738-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 2738-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 2738-2020.png", "A 2738-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 2738-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 2738-2020.docx", "A 2738-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 2738-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 2738-2020.docx", "A 2738-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 2738-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 2738-2020.docx", "A 2738-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 2738-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 2738-2020.docx", "A 2738-2020")</f>
         <v/>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2537,27 +2537,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 62434-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 62434-2020.xlsx", "A 62434-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 62434-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 62434-2020.png", "A 62434-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 62434-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 62434-2020.docx", "A 62434-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 62434-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 62434-2020.docx", "A 62434-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 62434-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 62434-2020.docx", "A 62434-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 62434-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 62434-2020.docx", "A 62434-2020")</f>
         <v/>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2622,27 +2622,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 44705-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 44705-2021.xlsx", "A 44705-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 44705-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 44705-2021.png", "A 44705-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 44705-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 44705-2021.docx", "A 44705-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 44705-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 44705-2021.docx", "A 44705-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 44705-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 44705-2021.docx", "A 44705-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 44705-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 44705-2021.docx", "A 44705-2021")</f>
         <v/>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,27 +2707,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 6350-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 6350-2022.xlsx", "A 6350-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 6350-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 6350-2022.png", "A 6350-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 6350-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 6350-2022.docx", "A 6350-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 6350-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 6350-2022.docx", "A 6350-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 6350-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 6350-2022.docx", "A 6350-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 6350-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 6350-2022.docx", "A 6350-2022")</f>
         <v/>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2792,27 +2792,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 13705-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 13705-2022.xlsx", "A 13705-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 13705-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 13705-2022.png", "A 13705-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 13705-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 13705-2022.docx", "A 13705-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 13705-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 13705-2022.docx", "A 13705-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 13705-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 13705-2022.docx", "A 13705-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 13705-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 13705-2022.docx", "A 13705-2022")</f>
         <v/>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2877,27 +2877,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 27958-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 27958-2022.xlsx", "A 27958-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 27958-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 27958-2022.png", "A 27958-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 27958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 27958-2022.docx", "A 27958-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 27958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 27958-2022.docx", "A 27958-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 27958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 27958-2022.docx", "A 27958-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 27958-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 27958-2022.docx", "A 27958-2022")</f>
         <v/>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2962,27 +2962,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 3132-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 3132-2023.xlsx", "A 3132-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 3132-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 3132-2023.png", "A 3132-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 3132-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 3132-2023.docx", "A 3132-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 3132-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 3132-2023.docx", "A 3132-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 3132-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 3132-2023.docx", "A 3132-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 3132-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 3132-2023.docx", "A 3132-2023")</f>
         <v/>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3047,27 +3047,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 14933-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/artfynd/A 14933-2023.xlsx", "A 14933-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 14933-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/kartor/A 14933-2023.png", "A 14933-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 14933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomål/A 14933-2023.docx", "A 14933-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 14933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/klagomålsmail/A 14933-2023.docx", "A 14933-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 14933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsyn/A 14933-2023.docx", "A 14933-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 14933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HASSLEHOLM/tillsynsmail/A 14933-2023.docx", "A 14933-2023")</f>
         <v/>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52257,7 +52257,7 @@
         <v>45180</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>44098</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>44098</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         <v>44102</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23243,7 +23243,7 @@
         <v>44103</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>44103</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44105</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44107</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23471,7 +23471,7 @@
         <v>44109</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23528,7 +23528,7 @@
         <v>44110</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23585,7 +23585,7 @@
         <v>44116</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23642,7 +23642,7 @@
         <v>44119</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23699,7 +23699,7 @@
         <v>44119</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
         <v>44119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44126</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23870,7 +23870,7 @@
         <v>44126</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44126</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
         <v>44126</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24041,7 +24041,7 @@
         <v>44126</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24098,7 +24098,7 @@
         <v>44126</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
         <v>44133</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
         <v>44141</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44144</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44147</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44147</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
         <v>44148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24559,7 +24559,7 @@
         <v>44152</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24616,7 +24616,7 @@
         <v>44155</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>44155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>44159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         <v>44161</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         <v>44161</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24901,7 +24901,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44168</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44168</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44168</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44177</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44179</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44183</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25367,7 +25367,7 @@
         <v>44186</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25424,7 +25424,7 @@
         <v>44188</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25481,7 +25481,7 @@
         <v>44188</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25538,7 +25538,7 @@
         <v>44188</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25595,7 +25595,7 @@
         <v>44188</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44191</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44191</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44194</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44194</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44194</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44199</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44200</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44207</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26108,7 +26108,7 @@
         <v>44208</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44208</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44208</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44214</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44214</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44215</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44215</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26507,7 +26507,7 @@
         <v>44216</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26564,7 +26564,7 @@
         <v>44216</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26621,7 +26621,7 @@
         <v>44216</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>44218</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>44218</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>44221</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>44222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26906,7 +26906,7 @@
         <v>44222</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26963,7 +26963,7 @@
         <v>44223</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27020,7 +27020,7 @@
         <v>44230</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27077,7 +27077,7 @@
         <v>44230</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>44232</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
         <v>44235</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>44235</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27310,7 +27310,7 @@
         <v>44236</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27367,7 +27367,7 @@
         <v>44236</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>44236</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44236</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27538,7 +27538,7 @@
         <v>44236</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         <v>44237</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>44237</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>44237</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>44237</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>44238</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>44242</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44242</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>44242</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44242</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44242</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
         <v>44244</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>44246</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44250</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>44251</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>44253</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28455,7 +28455,7 @@
         <v>44253</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28512,7 +28512,7 @@
         <v>44263</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28569,7 +28569,7 @@
         <v>44276</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         <v>44276</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28683,7 +28683,7 @@
         <v>44277</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>44299</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>44305</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>44305</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>44305</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>44305</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>44315</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29102,7 +29102,7 @@
         <v>44316</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29159,7 +29159,7 @@
         <v>44316</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29216,7 +29216,7 @@
         <v>44316</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29273,7 +29273,7 @@
         <v>44319</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>44321</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29387,7 +29387,7 @@
         <v>44323</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29444,7 +29444,7 @@
         <v>44326</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         <v>44326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29563,7 +29563,7 @@
         <v>44328</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>44328</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>44329</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
         <v>44335</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44335</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44335</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44335</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44337</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30019,7 +30019,7 @@
         <v>44342</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>44342</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30133,7 +30133,7 @@
         <v>44343</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30190,7 +30190,7 @@
         <v>44347</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30247,7 +30247,7 @@
         <v>44350</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30304,7 +30304,7 @@
         <v>44351</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>44375</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>44375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>44375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
         <v>44378</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30646,7 +30646,7 @@
         <v>44378</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30703,7 +30703,7 @@
         <v>44378</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>44379</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30817,7 +30817,7 @@
         <v>44379</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30874,7 +30874,7 @@
         <v>44382</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44382</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30998,7 +30998,7 @@
         <v>44396</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31055,7 +31055,7 @@
         <v>44403</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>44405</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44406</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         <v>44425</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>44428</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>44433</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>44434</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>44435</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>44438</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44438</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>44438</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44438</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>44441</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44441</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>44446</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>44448</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>44448</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44448</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44449</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44452</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>44452</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44452</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>44454</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>44454</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44454</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44454</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44459</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>44461</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>44462</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>44462</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>44462</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>44463</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32899,7 +32899,7 @@
         <v>44463</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32956,7 +32956,7 @@
         <v>44466</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         <v>44466</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33070,7 +33070,7 @@
         <v>44467</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33127,7 +33127,7 @@
         <v>44470</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33184,7 +33184,7 @@
         <v>44470</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33241,7 +33241,7 @@
         <v>44470</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33298,7 +33298,7 @@
         <v>44475</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         <v>44475</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33412,7 +33412,7 @@
         <v>44480</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33474,7 +33474,7 @@
         <v>44480</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         <v>44480</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33593,7 +33593,7 @@
         <v>44480</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33655,7 +33655,7 @@
         <v>44480</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44480</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>44481</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>44482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>44490</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>44495</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>44501</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>44509</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         <v>44511</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44515</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34297,7 +34297,7 @@
         <v>44518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34354,7 +34354,7 @@
         <v>44518</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34411,7 +34411,7 @@
         <v>44519</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>44523</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44524</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>44525</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44526</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>44531</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>44531</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>44533</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         <v>44553</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34924,7 +34924,7 @@
         <v>44558</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44558</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35048,7 +35048,7 @@
         <v>44558</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35110,7 +35110,7 @@
         <v>44560</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35167,7 +35167,7 @@
         <v>44564</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>44564</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35281,7 +35281,7 @@
         <v>44572</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35338,7 +35338,7 @@
         <v>44573</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35395,7 +35395,7 @@
         <v>44573</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35457,7 +35457,7 @@
         <v>44573</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35514,7 +35514,7 @@
         <v>44580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35571,7 +35571,7 @@
         <v>44580</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35628,7 +35628,7 @@
         <v>44580</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>44580</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44581</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35804,7 +35804,7 @@
         <v>44582</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
         <v>44583</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>44585</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>44587</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>44587</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>44587</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44588</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36213,7 +36213,7 @@
         <v>44588</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>44592</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>44593</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>44595</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>44599</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>44600</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36560,7 +36560,7 @@
         <v>44600</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36617,7 +36617,7 @@
         <v>44606</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
         <v>44606</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>44606</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36798,7 +36798,7 @@
         <v>44606</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>44607</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36922,7 +36922,7 @@
         <v>44607</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44607</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>44607</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37108,7 +37108,7 @@
         <v>44615</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>44616</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37222,7 +37222,7 @@
         <v>44636</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37279,7 +37279,7 @@
         <v>44638</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37336,7 +37336,7 @@
         <v>44638</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>44650</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>44652</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37507,7 +37507,7 @@
         <v>44659</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37569,7 +37569,7 @@
         <v>44659</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>44659</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>44663</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>44664</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>44670</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>44671</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37926,7 +37926,7 @@
         <v>44671</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37983,7 +37983,7 @@
         <v>44679</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>44700</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44705</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38154,7 +38154,7 @@
         <v>44705</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38211,7 +38211,7 @@
         <v>44719</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>44722</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>44728</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38387,7 +38387,7 @@
         <v>44728</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38444,7 +38444,7 @@
         <v>44728</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38501,7 +38501,7 @@
         <v>44729</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38558,7 +38558,7 @@
         <v>44729</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38615,7 +38615,7 @@
         <v>44732</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38672,7 +38672,7 @@
         <v>44734</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38729,7 +38729,7 @@
         <v>44741</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>44742</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>44743</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38900,7 +38900,7 @@
         <v>44744</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38957,7 +38957,7 @@
         <v>44746</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39014,7 +39014,7 @@
         <v>44746</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39071,7 +39071,7 @@
         <v>44746</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>44755</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>44775</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>44775</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39309,7 +39309,7 @@
         <v>44792</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39366,7 +39366,7 @@
         <v>44797</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39423,7 +39423,7 @@
         <v>44802</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39480,7 +39480,7 @@
         <v>44802</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39537,7 +39537,7 @@
         <v>44802</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         <v>44806</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39651,7 +39651,7 @@
         <v>44806</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>44809</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>44810</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
         <v>44811</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44811</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44812</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44813</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44820</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44820</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>44820</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44820</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44831</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44833</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44840</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44844</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44844</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>44846</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>44847</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>44858</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>44859</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>44859</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44860</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44872</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44873</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>44873</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44873</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>44875</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>44875</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>44875</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44877</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         <v>44879</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44881</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44881</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44881</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44881</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44882</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44882</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44882</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41919,7 +41919,7 @@
         <v>44882</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41981,7 +41981,7 @@
         <v>44882</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>44882</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42105,7 +42105,7 @@
         <v>44883</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42162,7 +42162,7 @@
         <v>44883</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42219,7 +42219,7 @@
         <v>44883</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>44883</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>44883</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42400,7 +42400,7 @@
         <v>44883</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>44883</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44883</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>44895</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44896</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42695,7 +42695,7 @@
         <v>44897</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44900</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>44900</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44900</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44910</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>44910</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>44910</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>44910</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>44910</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>44910</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>44910</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44914</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44914</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44914</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>44915</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>44915</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>44915</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43699,7 +43699,7 @@
         <v>44915</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43756,7 +43756,7 @@
         <v>44915</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>44915</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>44916</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>44917</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43989,7 +43989,7 @@
         <v>44922</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44046,7 +44046,7 @@
         <v>44931</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44103,7 +44103,7 @@
         <v>44937</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44160,7 +44160,7 @@
         <v>44937</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>44937</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44942</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>44944</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44398,7 +44398,7 @@
         <v>44946</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>44949</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44512,7 +44512,7 @@
         <v>44949</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>44949</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>44949</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44683,7 +44683,7 @@
         <v>44949</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44740,7 +44740,7 @@
         <v>44949</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44797,7 +44797,7 @@
         <v>44949</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>44950</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44911,7 +44911,7 @@
         <v>44953</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>44953</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45025,7 +45025,7 @@
         <v>44958</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45082,7 +45082,7 @@
         <v>44959</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45139,7 +45139,7 @@
         <v>44959</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45196,7 +45196,7 @@
         <v>44959</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45253,7 +45253,7 @@
         <v>44960</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45315,7 +45315,7 @@
         <v>44967</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         <v>44967</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
         <v>44967</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>44967</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>44971</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>44971</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44974</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>44974</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>44974</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>44974</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>44981</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>44984</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>44984</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>44985</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>44986</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>44986</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>44986</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46289,7 +46289,7 @@
         <v>44986</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46346,7 +46346,7 @@
         <v>44986</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46408,7 +46408,7 @@
         <v>44987</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46465,7 +46465,7 @@
         <v>44992</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46522,7 +46522,7 @@
         <v>44992</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46579,7 +46579,7 @@
         <v>44992</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46641,7 +46641,7 @@
         <v>44992</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46703,7 +46703,7 @@
         <v>44994</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46760,7 +46760,7 @@
         <v>44995</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46817,7 +46817,7 @@
         <v>44999</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46874,7 +46874,7 @@
         <v>44999</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46931,7 +46931,7 @@
         <v>44999</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46988,7 +46988,7 @@
         <v>45000</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
         <v>45001</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -47102,7 +47102,7 @@
         <v>45005</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47164,7 +47164,7 @@
         <v>45008</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47221,7 +47221,7 @@
         <v>45008</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47278,7 +47278,7 @@
         <v>45008</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47335,7 +47335,7 @@
         <v>45009</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47392,7 +47392,7 @@
         <v>45013</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47449,7 +47449,7 @@
         <v>45013</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47506,7 +47506,7 @@
         <v>45014</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47563,7 +47563,7 @@
         <v>45014</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47620,7 +47620,7 @@
         <v>45014</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47677,7 +47677,7 @@
         <v>45015</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47734,7 +47734,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47791,7 +47791,7 @@
         <v>45016</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>45018</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47905,7 +47905,7 @@
         <v>45020</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47962,7 +47962,7 @@
         <v>45021</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -48024,7 +48024,7 @@
         <v>45021</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -48086,7 +48086,7 @@
         <v>45026</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48143,7 +48143,7 @@
         <v>45028</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48200,7 +48200,7 @@
         <v>45033</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48257,7 +48257,7 @@
         <v>45034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48314,7 +48314,7 @@
         <v>45036</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48371,7 +48371,7 @@
         <v>45037</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48428,7 +48428,7 @@
         <v>45040</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48485,7 +48485,7 @@
         <v>45040</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48542,7 +48542,7 @@
         <v>45043</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48599,7 +48599,7 @@
         <v>45044</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48656,7 +48656,7 @@
         <v>45044</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48713,7 +48713,7 @@
         <v>45044</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48770,7 +48770,7 @@
         <v>45048</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48827,7 +48827,7 @@
         <v>45050</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48884,7 +48884,7 @@
         <v>45051</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48941,7 +48941,7 @@
         <v>45051</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48998,7 +48998,7 @@
         <v>45054</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -49055,7 +49055,7 @@
         <v>45056</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -49117,7 +49117,7 @@
         <v>45057</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49174,7 +49174,7 @@
         <v>45057</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49231,7 +49231,7 @@
         <v>45057</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49288,7 +49288,7 @@
         <v>45062</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49345,7 +49345,7 @@
         <v>45062</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49402,7 +49402,7 @@
         <v>45062</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49459,7 +49459,7 @@
         <v>45063</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49516,7 +49516,7 @@
         <v>45063</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49573,7 +49573,7 @@
         <v>45063</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49630,7 +49630,7 @@
         <v>45065</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49687,7 +49687,7 @@
         <v>45072</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49744,7 +49744,7 @@
         <v>45077</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>45077</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45077</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         <v>45078</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49972,7 +49972,7 @@
         <v>45079</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -50029,7 +50029,7 @@
         <v>45081</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -50086,7 +50086,7 @@
         <v>45082</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50143,7 +50143,7 @@
         <v>45084</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50200,7 +50200,7 @@
         <v>45087</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50257,7 +50257,7 @@
         <v>45090</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50314,7 +50314,7 @@
         <v>45092</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50371,7 +50371,7 @@
         <v>45092</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45096</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>45096</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50542,7 +50542,7 @@
         <v>45097</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50599,7 +50599,7 @@
         <v>45098</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50656,7 +50656,7 @@
         <v>45099</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50713,7 +50713,7 @@
         <v>45105</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50770,7 +50770,7 @@
         <v>45107</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50827,7 +50827,7 @@
         <v>45111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50884,7 +50884,7 @@
         <v>45118</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50941,7 +50941,7 @@
         <v>45119</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50998,7 +50998,7 @@
         <v>45119</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -51055,7 +51055,7 @@
         <v>45124</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -51112,7 +51112,7 @@
         <v>45125</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51169,7 +51169,7 @@
         <v>45125</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51226,7 +51226,7 @@
         <v>45138</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         <v>45145</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45145</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51397,7 +51397,7 @@
         <v>45145</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51454,7 +51454,7 @@
         <v>45147</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51511,7 +51511,7 @@
         <v>45147</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51568,7 +51568,7 @@
         <v>45148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51625,7 +51625,7 @@
         <v>45148</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>45148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>45148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>45148</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51915,7 +51915,7 @@
         <v>45148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51972,7 +51972,7 @@
         <v>45148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>45154</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45156</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45156</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45161</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52257,7 +52257,7 @@
         <v>45180</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>

--- a/Översikt HÄSSLEHOLM.xlsx
+++ b/Översikt HÄSSLEHOLM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y884"/>
+  <dimension ref="A1:Y885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44476</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43507</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43941</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>44952</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>43507</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>44147</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>43878</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44434</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>43438</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>43438</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>43440</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43446</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>43474</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43525</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>43620</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43629</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>43649</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>43724</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43724</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>43760</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43843</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44159</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>44600</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44648</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>44744</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44946</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>45014</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>43318</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>43318</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>43327</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>43332</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>43334</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>43335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>43348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>43353</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>43355</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>43363</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>43364</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         <v>43370</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43374</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43374</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43374</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43377</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43381</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
         <v>43381</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>43381</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>43381</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>43381</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>43382</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>43384</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>43397</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43397</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43397</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43398</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43398</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43398</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43398</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43398</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>43399</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>43409</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>43416</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>43424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>43426</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>43431</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>43432</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>43432</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43432</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43434</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>43436</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43436</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43438</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43438</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43439</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43439</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43439</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43439</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43440</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43440</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43440</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43440</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43451</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43451</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43452</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>43454</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>43460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43474</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>43476</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43479</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43482</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43483</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43483</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43490</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>43496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>43501</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>43507</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>43508</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>43509</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>43510</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>43511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>43515</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
         <v>43515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8112,7 +8112,7 @@
         <v>43517</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>43517</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>43524</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>43525</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>43525</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>43528</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>43528</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>43529</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>43530</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43530</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43531</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43534</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43537</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43537</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43537</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43538</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         <v>43539</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         <v>43539</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9205,7 +9205,7 @@
         <v>43539</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9262,7 +9262,7 @@
         <v>43543</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>43543</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>43543</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>43557</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43563</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43563</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>43565</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>43573</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>43580</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>43580</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>43584</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>43591</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>43593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>43605</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>43605</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>43607</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>43609</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>43609</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>43611</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>43612</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>43613</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>43613</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>43613</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43613</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>43613</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>43619</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43620</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43621</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43626</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43626</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43628</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>43632</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43633</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43647</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>43648</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43648</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43650</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43651</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>43651</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11981,7 +11981,7 @@
         <v>43654</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12038,7 +12038,7 @@
         <v>43654</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12095,7 +12095,7 @@
         <v>43654</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12152,7 +12152,7 @@
         <v>43654</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>43659</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43659</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43668</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43668</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43678</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43682</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43682</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43686</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43688</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43688</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43688</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43691</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43695</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43696</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43698</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43698</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43698</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43710</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43710</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43710</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43711</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43711</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>43711</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>43711</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43713</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>43717</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>43717</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>43717</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>43726</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>43726</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>43727</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>43727</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>43731</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>43740</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>43740</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43740</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43740</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>43741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>43741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43746</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>43749</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43752</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43756</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43756</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>43758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>43759</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>43759</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43760</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43760</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>43760</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>43761</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>43766</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>43768</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>43768</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>43774</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>43777</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>43784</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>43784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>43784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>43790</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>43795</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>43805</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>43809</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>43809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>43810</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>43811</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>43815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43844</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>43845</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>43847</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>43858</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>43859</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>43859</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>43860</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>43866</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>43867</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>43871</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>43871</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43871</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43871</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43872</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43874</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>43878</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>43878</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>43878</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>43881</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>43882</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>43882</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>43885</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>43886</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>43894</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43894</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>43894</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>43894</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>43894</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>43899</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>43899</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>43899</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>43906</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>43906</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>43910</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43915</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>43917</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43923</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43928</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>43935</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43949</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>43950</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43950</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>43950</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>43951</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         <v>43955</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>43955</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>43957</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43957</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>43957</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>43966</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>43970</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>43970</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>43973</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>43977</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>43977</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>43979</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20021,7 +20021,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20078,7 +20078,7 @@
         <v>43985</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>43985</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>43987</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>43992</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>43993</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>43997</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>43999</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>43999</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>43999</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>44004</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20705,7 +20705,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20762,7 +20762,7 @@
         <v>44011</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44012</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
         <v>44013</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44019</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44022</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44025</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44027</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44027</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44036</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>44036</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44040</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44042</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44047</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21617,7 +21617,7 @@
         <v>44053</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
         <v>44053</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21731,7 +21731,7 @@
         <v>44056</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
         <v>44058</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44065</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44067</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21964,7 +21964,7 @@
         <v>44068</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44068</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44078</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44078</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44078</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44078</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44082</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44082</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44082</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44082</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44085</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44089</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44091</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44091</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>44095</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>44096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>44096</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>44097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44097</v>
       </c>
       <c